--- a/data/ele.xlsx
+++ b/data/ele.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="10365" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="19185" windowHeight="10365" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="套餐分组查询用例" sheetId="6" r:id="rId6"/>
     <sheet name="推广链接查询用例" sheetId="7" r:id="rId7"/>
     <sheet name="新增剧集用例" sheetId="8" r:id="rId8"/>
+    <sheet name="新增剧集分类用例" sheetId="9" r:id="rId9"/>
+    <sheet name="新增剧集文件用例" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>序号</t>
   </si>
@@ -231,6 +233,54 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+  </si>
+  <si>
+    <t>父级id</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>剧集id</t>
+  </si>
+  <si>
+    <t>剧集名称</t>
+  </si>
+  <si>
+    <t>剧集介绍</t>
+  </si>
+  <si>
+    <t>是否收费</t>
+  </si>
+  <si>
+    <t>收费价格</t>
+  </si>
+  <si>
+    <t>vip价格</t>
+  </si>
+  <si>
+    <t>集数</t>
+  </si>
+  <si>
+    <t>状态(1开启，0关闭)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tes01 </t>
+  </si>
+  <si>
+    <t>test02</t>
   </si>
 </sst>
 </file>
@@ -1364,6 +1414,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>1111</v>
+      </c>
+      <c r="E2">
+        <v>11111</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>232</v>
+      </c>
+      <c r="I2">
+        <v>211</v>
+      </c>
+      <c r="J2">
+        <v>213</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>222</v>
+      </c>
+      <c r="E3">
+        <v>2222</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>333</v>
+      </c>
+      <c r="I3">
+        <v>222</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1609,8 +1778,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1730,8 +1899,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1801,10 +1970,90 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/ele.xlsx
+++ b/data/ele.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="10365" firstSheet="5" activeTab="7"/>
+    <workbookView windowWidth="19185" windowHeight="10365" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="新增剧集用例" sheetId="8" r:id="rId8"/>
     <sheet name="新增剧集分类用例" sheetId="9" r:id="rId9"/>
     <sheet name="新增剧集文件用例" sheetId="10" r:id="rId10"/>
+    <sheet name="demo" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>序号</t>
   </si>
@@ -281,6 +282,12 @@
   </si>
   <si>
     <t>test02</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1427,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1525,6 +1532,45 @@
       </c>
       <c r="K3">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1945,7 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
